--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35498.50089051382</v>
+        <v>7064201.677212247</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35498.50089051382</v>
+        <v>7064201.677212247</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17793.27746174216</v>
+        <v>1068142.530573646</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17793.27746174216</v>
+        <v>1068142.530573646</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265343600.048359</v>
+        <v>50429804.19356353</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10284.68025564705</v>
+        <v>1114825.913322736</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20085.83976629272</v>
+        <v>2153811.971597126</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29886.99927693838</v>
+        <v>3192798.029871518</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41246.08860833289</v>
+        <v>4217070.19998185</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52450.91208114154</v>
+        <v>5210643.464233595</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63655.73555395017</v>
+        <v>6204216.728485338</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74860.55902675878</v>
+        <v>7197789.992737079</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86820.27946926435</v>
+        <v>8220675.353958517</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>98487.22224986626</v>
+        <v>9176495.731173592</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>110257.7480607712</v>
+        <v>10152929.13141897</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>121000.1715869024</v>
+        <v>11191597.4407753</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130949.3965115894</v>
+        <v>12199884.59319111</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>141052.8872948622</v>
+        <v>13238870.65146551</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>151156.3780781351</v>
+        <v>14277856.70973991</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161259.8688614079</v>
+        <v>15316842.7680143</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>253</v>
@@ -27055,16 +27055,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>217</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>132</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>487</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
